--- a/UiBankTestingITAutomation/TestCases/Quotes/Calculator/Quote variation.xlsx
+++ b/UiBankTestingITAutomation/TestCases/Quotes/Calculator/Quote variation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ionut-mihai.nicula\Documents\UiPath\UiPath Git Repositories\UiBank-Vue\Test Project\net45\TestCases\Quotes\Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ionut-mihai.nicula\Documents\UiPath\UiPath Git Repositories\UiBank-Vue\UiBankTestingITAutomation\TestCases\Quotes\Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA1DA6C-F1BF-4D09-9CF6-2DAC8A441822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F11AD-EC96-410D-9358-37DFB63AB297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27330" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,15 +294,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -319,7 +319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -336,7 +336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>12000</v>
       </c>
@@ -353,7 +353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>16000</v>
       </c>
@@ -370,7 +370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>18000</v>
       </c>
@@ -387,7 +387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>30000</v>
       </c>
@@ -656,6 +656,414 @@
         <v>65</v>
       </c>
       <c r="E21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>18000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>85000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>35000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>12000</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>55000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>16000</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>65000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>18000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>85000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>65</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>35000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>12000</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>55000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>16000</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>65000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>18000</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>55</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>85000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>65</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>18000</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>55</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>85000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>65</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>35000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>12000</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>55000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>35</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>16000</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>65000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>18000</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>85000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>65</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>35000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>25</v>
+      </c>
+      <c r="E41" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>12000</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>55000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>35</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>16000</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>65000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>18000</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>55</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>85000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>65</v>
+      </c>
+      <c r="E45" s="1">
         <v>2</v>
       </c>
     </row>
